--- a/data/matriculas.xlsx
+++ b/data/matriculas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D361C20488DEA4E38A0BF541B7A425ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F674C867-2C3D-4756-99CC-6D62BFC92B83}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_AD4D361C20488DEA4E38A0BF541B7A425ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A2D62FD-A463-4559-8AD9-F1B95AC60622}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>matricula</t>
   </si>
@@ -34,6 +34,57 @@
   </si>
   <si>
     <t>Caíque Tadeu Filipini</t>
+  </si>
+  <si>
+    <t>Bruno Zan Arriaga</t>
+  </si>
+  <si>
+    <t>Victor Hugo Nolasco</t>
+  </si>
+  <si>
+    <t>Adelmo Felipe de Oliveira Bento da Silva</t>
+  </si>
+  <si>
+    <t>Felipe Alves Ferreira</t>
+  </si>
+  <si>
+    <t>Diogo Rodrigues de Sousa Lima</t>
+  </si>
+  <si>
+    <t>Raquel Shadeck Ouchi</t>
+  </si>
+  <si>
+    <t>Douglas Oliveira Andrade</t>
+  </si>
+  <si>
+    <t>Laura Barreto Miranda Scarpa Leite</t>
+  </si>
+  <si>
+    <t>Gama Rodrigo Gama dos Santos</t>
+  </si>
+  <si>
+    <t>Lu Luciane Petrangelo</t>
+  </si>
+  <si>
+    <t>Mendes Rodrigo Mendes Santos</t>
+  </si>
+  <si>
+    <t>Kimori Marcos Goncalves Kimori</t>
+  </si>
+  <si>
+    <t>Baldocchi Rafael Cesar Baldocchi</t>
+  </si>
+  <si>
+    <t>Balan Antonio Carlos Balan Junior</t>
+  </si>
+  <si>
+    <t>Fe Fernanda Eugenio</t>
+  </si>
+  <si>
+    <t>Jean Paulo Kambourakis</t>
+  </si>
+  <si>
+    <t>Nanda Annanda Destro Torteli</t>
   </si>
 </sst>
 </file>
@@ -86,6 +137,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,6 +430,142 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>731198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>775732</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>793126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>629839</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>497935</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>615881</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>594396</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>696629</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>660439</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>591914</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>607954</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>661523</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>705641</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>667096</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>607874</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>666396</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>808110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/matriculas.xlsx
+++ b/data/matriculas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe570407d8e87ac/Área de Trabalho/Data Science/Gen AI/projetos/chatbot-whatsapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_AD4D361C20488DEA4E38A0BF541B7A425ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A2D62FD-A463-4559-8AD9-F1B95AC60622}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4D361C20488DEA4E38A0BF541B7A425ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DC49CE8-D5AA-4C0B-9921-BE1DF7C366F6}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>matricula</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Jean Paulo Kambourakis</t>
-  </si>
-  <si>
-    <t>Nanda Annanda Destro Torteli</t>
   </si>
 </sst>
 </file>
@@ -406,11 +403,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -558,14 +553,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>808110</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
